--- a/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
@@ -230,6 +230,78 @@
     <t xml:space="preserve">      Fixed operational and maintenance costs </t>
   </si>
   <si>
+    <t>Fixed operational and maintenance</t>
+  </si>
+  <si>
+    <t>cedelft-ecn-tno</t>
+  </si>
+  <si>
+    <t>transport_truck_using_compressed_natural_gas.converter.ad</t>
+  </si>
+  <si>
+    <t>http://www.jbhunt.com/files/0001723_NATURAL_GAS_WHITE_PAPER_022014.pdf</t>
+  </si>
+  <si>
+    <t>jbhunt</t>
+  </si>
+  <si>
+    <t>The additional cost has been added to ''transport_truck_using_diesel''</t>
+  </si>
+  <si>
+    <t>Additional maintanance cost 0.02$ per mile to the ''transport_truck_using_diesel''</t>
+  </si>
+  <si>
+    <t>It is assumed 50000 miles per year</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jbhunt</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>p.87</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>p.85</t>
+  </si>
+  <si>
+    <t>Subject year</t>
+  </si>
+  <si>
+    <t>miles/yr</t>
+  </si>
+  <si>
+    <t>p.1</t>
+  </si>
+  <si>
+    <t>p.3</t>
+  </si>
+  <si>
+    <t>$/mile</t>
+  </si>
+  <si>
+    <t>euro/mile</t>
+  </si>
+  <si>
+    <t>ETM Library URL</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1933</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1928</t>
+  </si>
+  <si>
     <r>
       <t>output.</t>
     </r>
@@ -241,100 +313,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>not</t>
+      <t>truck_kms</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defined</t>
-    </r>
-  </si>
-  <si>
-    <t>Fixed operational and maintenance</t>
-  </si>
-  <si>
-    <t>cedelft-ecn-tno</t>
-  </si>
-  <si>
-    <t>transport_truck_using_compressed_natural_gas.converter.ad</t>
-  </si>
-  <si>
-    <t>http://www.jbhunt.com/files/0001723_NATURAL_GAS_WHITE_PAPER_022014.pdf</t>
-  </si>
-  <si>
-    <t>jbhunt</t>
-  </si>
-  <si>
-    <t>The additional cost has been added to ''transport_truck_using_diesel''</t>
-  </si>
-  <si>
-    <t>Additional maintanance cost 0.02$ per mile to the ''transport_truck_using_diesel''</t>
-  </si>
-  <si>
-    <t>It is assumed 50000 miles per year</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jbhunt</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>p.87</t>
-  </si>
-  <si>
-    <t>yr</t>
-  </si>
-  <si>
-    <t>p.85</t>
-  </si>
-  <si>
-    <t>Subject year</t>
-  </si>
-  <si>
-    <t>miles/yr</t>
-  </si>
-  <si>
-    <t>p.1</t>
-  </si>
-  <si>
-    <t>p.3</t>
-  </si>
-  <si>
-    <t>$/mile</t>
-  </si>
-  <si>
-    <t>euro/mile</t>
-  </si>
-  <si>
-    <t>ETM Library URL</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1933</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1928</t>
   </si>
 </sst>
 </file>
@@ -342,23 +322,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -844,392 +817,392 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="243">
+  <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1241,7 +1214,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1251,42 +1224,43 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="243">
+  <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1440,6 +1414,7 @@
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2233,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2386,9 +2361,7 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2412,36 +2385,36 @@
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="122"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="123"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="125"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
@@ -2506,8 +2479,8 @@
     </row>
     <row r="11" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="19"/>
-      <c r="C11" s="87" t="s">
-        <v>55</v>
+      <c r="C11" s="125" t="s">
+        <v>79</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
@@ -2566,8 +2539,8 @@
         <v>6</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="111" t="s">
-        <v>57</v>
+      <c r="I14" s="110" t="s">
+        <v>56</v>
       </c>
       <c r="J14" s="82"/>
     </row>
@@ -2589,7 +2562,7 @@
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="82"/>
     </row>
@@ -2634,8 +2607,8 @@
         <v>29</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="105" t="s">
-        <v>57</v>
+      <c r="I18" s="104" t="s">
+        <v>56</v>
       </c>
       <c r="J18" s="82"/>
     </row>
@@ -2774,15 +2747,15 @@
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="86"/>
       <c r="K4" s="86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="86"/>
       <c r="M4" s="86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1">
@@ -2827,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="47"/>
-      <c r="I7" s="104"/>
+      <c r="I7" s="103"/>
       <c r="J7" s="44"/>
       <c r="K7" s="51">
         <f>Notes!C12</f>
@@ -2864,7 +2837,7 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
-      <c r="M9" s="103"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="16" thickBot="1">
       <c r="B10" s="43"/>
@@ -2881,15 +2854,15 @@
         <v>128000</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="113"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="44"/>
       <c r="K10" s="48">
         <f>Notes!C29</f>
         <v>128000</v>
       </c>
       <c r="L10" s="44"/>
-      <c r="M10" s="103" t="s">
-        <v>61</v>
+      <c r="M10" s="102" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="16" thickBot="1">
@@ -2907,15 +2880,15 @@
         <v>4415</v>
       </c>
       <c r="H11" s="54"/>
-      <c r="I11" s="112">
+      <c r="I11" s="111">
         <f>Notes!C55*Notes!C47+3640</f>
         <v>4415</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="47"/>
       <c r="L11" s="44"/>
-      <c r="M11" s="103" t="s">
-        <v>62</v>
+      <c r="M11" s="102" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -2930,8 +2903,8 @@
       <c r="J12" s="44"/>
       <c r="K12" s="47"/>
       <c r="L12" s="44"/>
-      <c r="M12" s="103" t="s">
-        <v>63</v>
+      <c r="M12" s="102" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2958,32 +2931,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="88" customWidth="1"/>
-    <col min="2" max="2" width="4" style="88" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="88" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="88" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="88" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="89" customWidth="1"/>
-    <col min="9" max="9" width="32.375" style="89" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="88" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="88"/>
+    <col min="1" max="1" width="3.25" style="87" customWidth="1"/>
+    <col min="2" max="2" width="4" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="87" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="87" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="88" customWidth="1"/>
+    <col min="9" max="9" width="32.375" style="88" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="87" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="91"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="93"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
@@ -2991,23 +2964,23 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="97"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="76" t="s">
         <v>17</v>
       </c>
@@ -3021,135 +2994,135 @@
         <v>18</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="98" t="s">
-        <v>77</v>
+      <c r="I5" s="97" t="s">
+        <v>76</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="93"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="93"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="95">
+      <c r="B7" s="92"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="94">
         <v>2014</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="94">
         <v>2013</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="116" t="s">
+      <c r="H7" s="99"/>
+      <c r="I7" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="101"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="92"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="101"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="92"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="92"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="94">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="94">
+        <v>2012</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="115" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="93"/>
-      <c r="C8" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="102"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="93"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="102"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="93"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="93"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="95">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="95">
-        <v>2012</v>
-      </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="94" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="93"/>
-      <c r="C12" s="99" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="93"/>
-      <c r="C13" s="99" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3166,32 +3139,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="106" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="106" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="106"/>
-    <col min="11" max="11" width="10" style="106" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="106"/>
+    <col min="1" max="1" width="5.625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="105" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="105" customWidth="1"/>
+    <col min="4" max="10" width="10.625" style="105"/>
+    <col min="11" max="11" width="10" style="105" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1">
       <c r="B3" s="75"/>
@@ -3199,7 +3172,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
@@ -3210,733 +3183,733 @@
       <c r="K3" s="76"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109">
+        <v>12</v>
+      </c>
+      <c r="D12" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110">
-        <v>12</v>
-      </c>
-      <c r="D12" s="110" t="s">
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="108"/>
+      <c r="C22" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="109"/>
-      <c r="C29" s="110">
+      <c r="B29" s="108"/>
+      <c r="C29" s="109">
         <v>128000</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="109"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="109"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="109"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="109"/>
-      <c r="C41" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="109"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="109"/>
-      <c r="C42" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="109"/>
-      <c r="C47" s="110">
+      <c r="B47" s="108"/>
+      <c r="C47" s="109">
         <v>50000</v>
       </c>
-      <c r="D47" s="110" t="s">
+      <c r="D47" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="109"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="109"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="108"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="108"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="109"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="108"/>
+      <c r="C52" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="109"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="109"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="109"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="109"/>
-      <c r="C52" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="109"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="110"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="109"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="109"/>
-      <c r="C54" s="110">
+      <c r="B54" s="108"/>
+      <c r="C54" s="109">
         <f>0.02</f>
         <v>0.02</v>
       </c>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="109"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="108"/>
+      <c r="C55" s="113">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D55" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="109"/>
-      <c r="C55" s="114">
-        <v>1.55E-2</v>
-      </c>
-      <c r="D55" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="110"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="109"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="109"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="110"/>
-      <c r="K56" s="110"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="109"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="109"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="110"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="109"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="109"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
-      <c r="K58" s="110"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="109"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="110"/>
-      <c r="K59" s="110"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="109"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="110"/>
-      <c r="K60" s="110"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="109"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
-      <c r="F61" s="110"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="110"/>
-      <c r="J61" s="110"/>
-      <c r="K61" s="110"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robterwel/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Source</t>
   </si>
@@ -316,6 +321,18 @@
       <t>truck_kms</t>
     </r>
   </si>
+  <si>
+    <t>MJ/km</t>
+  </si>
+  <si>
+    <t>km/MJ</t>
+  </si>
+  <si>
+    <t>p.66</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
 </sst>
 </file>
 
@@ -326,12 +343,26 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -819,446 +850,455 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1508,6 +1548,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1543,7 +1588,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1551,6 +1596,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1665,8 +1716,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -1702,8 +1753,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1732,11 +1783,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3911600" y="12357100"/>
+          <a:ext cx="7302500" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2175,34 +2264,36 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="17"/>
+    <col min="1" max="1" width="3.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2211,7 +2302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
@@ -2220,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2229,128 +2320,123 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="61"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="60"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="66" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="68" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="68" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="73" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="72" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="70"/>
-      <c r="C23" s="74" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="69"/>
+      <c r="C23" s="73" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2361,68 +2447,70 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="44.25" style="30" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="3.75" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="3.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="116" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="122"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="32"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2430,33 +2518,33 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="2:11" s="20" customFormat="1">
-      <c r="B8" s="75"/>
-      <c r="C8" s="76" t="s">
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="74"/>
+      <c r="C8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76" t="s">
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76" t="s">
+      <c r="H8" s="75"/>
+      <c r="I8" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="78"/>
-    </row>
-    <row r="9" spans="2:11" s="20" customFormat="1">
-      <c r="B9" s="19"/>
+      <c r="J8" s="77"/>
+    </row>
+    <row r="9" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -2464,12 +2552,12 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
-      <c r="B10" s="19"/>
+    <row r="10" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2477,170 +2565,173 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="125" t="s">
+    <row r="11" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="29" t="s">
-        <v>27</v>
+      <c r="D11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="28">
+        <f>'Research data'!G7</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="119" t="s">
+        <v>56</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="35"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
-      <c r="B13" s="35"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
       <c r="C13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="35"/>
-      <c r="C14" s="34" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36">
-        <f>'Research data'!G10</f>
+      <c r="E14" s="35">
+        <f>'Research data'!G13</f>
         <v>128000</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="110" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="82"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
-      <c r="B15" s="35"/>
-      <c r="C15" s="34" t="s">
+      <c r="J14" s="81"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="83">
-        <f>'Research data'!G11</f>
+      <c r="E15" s="82">
+        <f>'Research data'!G14</f>
         <v>4415</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="65" t="s">
+      <c r="H15" s="33"/>
+      <c r="I15" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="82"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="35"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
-    </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
-      <c r="B17" s="35"/>
+      <c r="J15" s="81"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
       <c r="C17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-    </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
-      <c r="B18" s="35"/>
-      <c r="C18" s="34" t="s">
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="36">
-        <f>'Research data'!G7</f>
+      <c r="E18" s="35">
+        <f>'Research data'!G10</f>
         <v>12</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="59" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="104" t="s">
+      <c r="H18" s="33"/>
+      <c r="I18" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="82"/>
-    </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="34" t="s">
+      <c r="J18" s="81"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>0</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="29" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="82"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="J19" s="81"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2680,11 +2771,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2693,86 +2779,86 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="40" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="40" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="40" customWidth="1"/>
-    <col min="13" max="13" width="59.125" style="40" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="40"/>
+    <col min="1" max="1" width="4.33203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="39" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="59.1640625" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="2:13" s="20" customFormat="1">
-      <c r="B4" s="19"/>
-      <c r="C4" s="86" t="s">
+    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="85" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86" t="s">
+      <c r="H4" s="85"/>
+      <c r="I4" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="85" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="43"/>
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="M5" s="55"/>
+    </row>
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2780,141 +2866,183 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="55"/>
-    </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
-      <c r="B7" s="43"/>
-      <c r="C7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51">
-        <f>ROUND(12,0)</f>
-        <v>12</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="51">
-        <f>Notes!C12</f>
-        <v>12</v>
-      </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="58"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="43"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
-      <c r="B9" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="116" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="118">
+        <f>K7</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="118">
+        <f>Notes!E70</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="57"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="42"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="M8" s="55"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="102"/>
-    </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
-      <c r="B10" s="43"/>
-      <c r="C10" s="85" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+      <c r="C10" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50">
+        <f>ROUND(12,0)</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="50">
+        <f>Notes!C12</f>
+        <v>12</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="57"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="42"/>
+      <c r="C12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="100"/>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="57" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G13" s="47">
         <f>ROUND(128000,2)</f>
         <v>128000</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="48">
+      <c r="H13" s="11"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="47">
         <f>Notes!C29</f>
         <v>128000</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="102" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="100" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1">
-      <c r="B11" s="43"/>
-      <c r="C11" s="85" t="s">
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="84" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G14" s="52">
         <f>ROUND(4415,2)</f>
         <v>4415</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="111">
+      <c r="H14" s="53"/>
+      <c r="I14" s="109">
         <f>Notes!C55*Notes!C47+3640</f>
         <v>4415</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="102" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="43"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="102" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="84"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="100" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2925,38 +3053,38 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="87" customWidth="1"/>
-    <col min="2" max="2" width="4" style="87" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="87" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="87" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="87" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="88" customWidth="1"/>
-    <col min="9" max="9" width="32.375" style="88" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="87" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="87"/>
+    <col min="1" max="1" width="3.1640625" style="86" customWidth="1"/>
+    <col min="2" max="2" width="4" style="86" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="86" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="86" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="87" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" style="87" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" style="86" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="90"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="92"/>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="91"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
@@ -2964,960 +3092,1044 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="92"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="94"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="96"/>
-      <c r="C5" s="76" t="s">
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="91"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="95"/>
+      <c r="C5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="92"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="91"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="92"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="109" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="91"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="93">
         <v>2014</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="93">
         <v>2013</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="115" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="112" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="92"/>
-      <c r="C8" s="98" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="91"/>
+      <c r="C8" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="101"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="92"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="101"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="92"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="92"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="94" t="s">
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="99"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="91"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="99"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="91"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="91"/>
+      <c r="C11" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="93">
         <v>2013</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="93">
         <v>2012</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="115" t="s">
+      <c r="H11" s="93"/>
+      <c r="I11" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="93" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="92"/>
-      <c r="C12" s="98" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="91"/>
+      <c r="C12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="92"/>
-      <c r="C13" s="98" t="s">
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="91"/>
+      <c r="C13" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K61"/>
+  <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="105" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="105" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="105" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="105"/>
-    <col min="11" max="11" width="10" style="105" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="105"/>
+    <col min="1" max="1" width="5.6640625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="103" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="103" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" style="103"/>
+    <col min="11" max="11" width="10" style="103" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-    </row>
-    <row r="3" spans="2:11" s="20" customFormat="1">
-      <c r="B3" s="75"/>
-      <c r="C3" s="76" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+    </row>
+    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="108"/>
-      <c r="C6" s="109" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="106"/>
+      <c r="C6" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="108"/>
-      <c r="C7" s="109" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="106"/>
+      <c r="C7" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="108"/>
-      <c r="C12" s="109">
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="106"/>
+      <c r="C12" s="107">
         <v>12</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="108"/>
-      <c r="C22" s="109" t="s">
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="106"/>
+      <c r="C22" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="108"/>
-      <c r="C29" s="109">
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="106"/>
+      <c r="C29" s="107">
         <v>128000</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="108"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="108"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="108"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="108"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="108"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="108"/>
-      <c r="C41" s="109" t="s">
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="106"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="106"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="106"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="106"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="106"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="106"/>
+      <c r="C41" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="108"/>
-      <c r="C42" s="109" t="s">
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="106"/>
+      <c r="C42" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="108"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="108"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="109"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="108"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="108"/>
-      <c r="C47" s="109">
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="106"/>
+      <c r="C47" s="107">
         <v>50000</v>
       </c>
-      <c r="D47" s="109" t="s">
+      <c r="D47" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="109"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="108"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="108"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="109"/>
-      <c r="K51" s="109"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="108"/>
-      <c r="C52" s="109" t="s">
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="106"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="106"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="106"/>
+      <c r="C52" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="108"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="108"/>
-      <c r="C54" s="109">
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="106"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="107"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="106"/>
+      <c r="C54" s="107">
         <f>0.02</f>
         <v>0.02</v>
       </c>
-      <c r="D54" s="109" t="s">
+      <c r="D54" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="108"/>
-      <c r="C55" s="113">
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="107"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="106"/>
+      <c r="C55" s="111">
         <v>1.55E-2</v>
       </c>
-      <c r="D55" s="109" t="s">
+      <c r="D55" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="109"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="108"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
-      <c r="K56" s="109"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="108"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="109"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="108"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="109"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="108"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="109"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="108"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="109"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="108"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="107"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="107"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="106"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="107"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="106"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="107"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="107"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="106"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="107"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="106"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="106"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="106"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="106"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="106"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="106"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="106"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="106"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="106"/>
+      <c r="C69" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="103">
+        <v>9.4</v>
+      </c>
+      <c r="F69" s="115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="106"/>
+      <c r="C70" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="103">
+        <f>1/E69</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="F70" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="106"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="106"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="106"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="106"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="106"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="106"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="106"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="106"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="106"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="106"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="106"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="106"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="106"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="106"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robterwel/Projects/etdataset/nodes_source_analyses/transport/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>Source</t>
   </si>
@@ -117,12 +112,6 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>initial_investment</t>
-  </si>
-  <si>
-    <t>fixed_operation_and_maintenance_costs_per_year</t>
-  </si>
-  <si>
     <t>technical_lifetime</t>
   </si>
   <si>
@@ -132,9 +121,6 @@
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
   </si>
   <si>
-    <t>Fixed operational and maintenance costs per year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Technical lifetime </t>
   </si>
   <si>
@@ -196,9 +182,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -262,9 +245,6 @@
     <t>US</t>
   </si>
   <si>
-    <t xml:space="preserve"> jbhunt</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -343,12 +323,19 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -850,454 +837,452 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="244">
@@ -1588,7 +1573,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1596,12 +1581,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1825,7 +1804,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2268,50 +2247,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="16" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="16"/>
+    <col min="4" max="16384" width="10.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="22" customFormat="1">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2320,123 +2299,128 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="61"/>
       <c r="C12" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="61"/>
       <c r="C13" s="64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="61"/>
       <c r="C15" s="62"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="61"/>
       <c r="C17" s="66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="61"/>
       <c r="C18" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="61"/>
       <c r="C19" s="68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="69"/>
       <c r="C20" s="70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="69"/>
       <c r="C21" s="71" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="69"/>
       <c r="C22" s="72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="69"/>
       <c r="C23" s="73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2445,71 +2429,71 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="44.125" style="29" customWidth="1"/>
     <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
     <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="29"/>
+    <col min="10" max="10" width="3.625" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="124"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="124"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="123"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="127"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129"/>
+    <row r="5" spans="2:10">
+      <c r="B5" s="126"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="16" thickBot="1">
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2520,7 +2504,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" s="19" customFormat="1">
       <c r="B8" s="74"/>
       <c r="C8" s="75" t="s">
         <v>20</v>
@@ -2541,7 +2525,7 @@
       </c>
       <c r="J8" s="77"/>
     </row>
-    <row r="9" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" s="19" customFormat="1">
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="26"/>
@@ -2552,10 +2536,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="19" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="13"/>
@@ -2565,174 +2549,105 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="19" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="18"/>
-      <c r="C11" s="114" t="s">
-        <v>79</v>
+      <c r="C11" s="112" t="s">
+        <v>74</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E11" s="28">
         <f>'Research data'!G7</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="120" t="s">
-        <v>83</v>
+      <c r="G11" s="118" t="s">
+        <v>78</v>
       </c>
       <c r="H11" s="25"/>
-      <c r="I11" s="119" t="s">
-        <v>56</v>
+      <c r="I11" s="117" t="s">
+        <v>52</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="34"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:10" ht="16" thickBot="1">
       <c r="B13" s="34"/>
       <c r="C13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:10" ht="16" thickBot="1">
       <c r="B14" s="34"/>
       <c r="C14" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E14" s="35">
-        <f>'Research data'!G13</f>
-        <v>128000</v>
+        <f>'Research data'!G10</f>
+        <v>12</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="33" t="s">
-        <v>6</v>
+      <c r="G14" s="58" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="33"/>
-      <c r="I14" s="108" t="s">
-        <v>56</v>
+      <c r="I14" s="101" t="s">
+        <v>52</v>
       </c>
       <c r="J14" s="81"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="16" thickBot="1">
       <c r="B15" s="34"/>
       <c r="C15" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="82">
-        <f>'Research data'!G14</f>
-        <v>4415</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="64" t="s">
-        <v>64</v>
+      <c r="I15" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="J15" s="81"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="35">
-        <f>'Research data'!G10</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="81"/>
-    </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="81"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
+    <row r="16" spans="2:10" ht="16" thickBot="1">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="20" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
@@ -2771,6 +2686,11 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2785,26 +2705,26 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="39" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="39" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="39" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="39" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="59.1640625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="39"/>
+    <col min="10" max="10" width="2.125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="59.125" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="10.625" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="16" thickBot="1"/>
+    <row r="3" spans="2:13">
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -2818,33 +2738,33 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="19" customFormat="1">
       <c r="B4" s="18"/>
-      <c r="C4" s="85" t="s">
-        <v>51</v>
+      <c r="C4" s="84" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18" customHeight="1">
       <c r="B5" s="42"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -2855,10 +2775,10 @@
       <c r="I5" s="46"/>
       <c r="M5" s="55"/>
     </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2870,31 +2790,31 @@
       <c r="L6" s="43"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16" thickBot="1">
       <c r="B7" s="42"/>
-      <c r="C7" s="116" t="s">
-        <v>83</v>
+      <c r="C7" s="114" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="118">
+      <c r="F7" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="116">
         <f>K7</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="101"/>
+      <c r="I7" s="100"/>
       <c r="J7" s="43"/>
-      <c r="K7" s="118">
+      <c r="K7" s="116">
         <f>Notes!E70</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="57"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="42"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -2905,7 +2825,7 @@
       <c r="I8" s="46"/>
       <c r="M8" s="55"/>
     </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16" thickBot="1">
       <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -2921,7 +2841,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="54"/>
     </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16" thickBot="1">
       <c r="B10" s="42"/>
       <c r="C10" s="49" t="s">
         <v>3</v>
@@ -2936,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="46"/>
-      <c r="I10" s="101"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="43"/>
       <c r="K10" s="50">
         <f>Notes!C12</f>
@@ -2945,7 +2865,7 @@
       <c r="L10" s="43"/>
       <c r="M10" s="57"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="42"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2959,10 +2879,10 @@
       <c r="L11" s="43"/>
       <c r="M11" s="45"/>
     </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16" thickBot="1">
       <c r="B12" s="42"/>
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2973,11 +2893,11 @@
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
-      <c r="M12" s="100"/>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="84" t="s">
-        <v>53</v>
+      <c r="M12" s="99"/>
+    </row>
+    <row r="13" spans="2:13" ht="16" thickBot="1">
+      <c r="C13" s="83" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2989,60 +2909,65 @@
         <v>128000</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="110"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="43"/>
       <c r="K13" s="47">
         <f>Notes!C29</f>
         <v>128000</v>
       </c>
       <c r="L13" s="43"/>
-      <c r="M13" s="100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="84" t="s">
-        <v>54</v>
+      <c r="M13" s="99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="16" thickBot="1">
+      <c r="C14" s="83" t="s">
+        <v>50</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
-      <c r="F14" s="83" t="s">
-        <v>26</v>
+      <c r="F14" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="52">
         <f>ROUND(4415,2)</f>
         <v>4415</v>
       </c>
       <c r="H14" s="53"/>
-      <c r="I14" s="109">
+      <c r="I14" s="107">
         <f>Notes!C55*Notes!C47+3640</f>
         <v>4415</v>
       </c>
       <c r="J14" s="43"/>
       <c r="K14" s="46"/>
       <c r="L14" s="43"/>
-      <c r="M14" s="100" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="84"/>
+      <c r="M14" s="99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="C15" s="83"/>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
-      <c r="F15" s="83"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="53"/>
       <c r="J15" s="43"/>
       <c r="K15" s="46"/>
       <c r="L15" s="43"/>
-      <c r="M15" s="100" t="s">
-        <v>62</v>
+      <c r="M15" s="99" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3053,38 +2978,38 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="86" customWidth="1"/>
-    <col min="2" max="2" width="4" style="86" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="86" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="86" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="86" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="87" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" style="87" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="86" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="86"/>
+    <col min="1" max="1" width="3.125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4" style="85" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="85" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="85" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="86" customWidth="1"/>
+    <col min="9" max="9" width="32.375" style="86" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="85" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="89"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="91"/>
+    <row r="1" spans="2:10" ht="16" thickBot="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="88"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="90"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
@@ -3092,23 +3017,23 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="91"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="93"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="95"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="92"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="94"/>
       <c r="C5" s="75" t="s">
         <v>17</v>
       </c>
@@ -3122,141 +3047,146 @@
         <v>18</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="96" t="s">
-        <v>76</v>
+      <c r="I5" s="95" t="s">
+        <v>71</v>
       </c>
       <c r="J5" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="91"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="90"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="107" t="s">
+    <row r="7" spans="2:10">
+      <c r="B7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="93">
+      <c r="F7" s="92">
         <v>2014</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="92">
         <v>2013</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="91"/>
-      <c r="C8" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="99"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="91"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="99"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="91"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="91"/>
-      <c r="C11" s="130" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="93" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="110" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="90"/>
+      <c r="C8" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="98"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="90"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="98"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="90"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="90"/>
+      <c r="C11" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="92">
         <v>2013</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="92">
         <v>2012</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="91"/>
-      <c r="C12" s="97" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="90"/>
+      <c r="C12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="91"/>
-      <c r="C13" s="97" t="s">
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="90"/>
+      <c r="C13" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3268,36 +3198,36 @@
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="103" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="103" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" style="103"/>
-    <col min="11" max="11" width="10" style="103" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="103"/>
+    <col min="1" max="1" width="5.625" style="102" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="102" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="102" customWidth="1"/>
+    <col min="4" max="10" width="10.625" style="102"/>
+    <col min="11" max="11" width="10" style="102" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-    </row>
-    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="16" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+    </row>
+    <row r="3" spans="2:11" s="19" customFormat="1">
       <c r="B3" s="74"/>
       <c r="C3" s="75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
@@ -3307,829 +3237,834 @@
       <c r="J3" s="75"/>
       <c r="K3" s="75"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="106"/>
-      <c r="C6" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107" t="s">
+    <row r="4" spans="2:11">
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="105"/>
+      <c r="C6" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="105"/>
+      <c r="C7" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="105"/>
+      <c r="C12" s="106">
+        <v>12</v>
+      </c>
+      <c r="D12" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="105"/>
+      <c r="C22" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="105"/>
+      <c r="C29" s="106">
+        <v>128000</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="105"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="105"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="105"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="105"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="105"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="105"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="105"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="105"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="105"/>
+      <c r="C41" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="105"/>
+      <c r="C42" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="105"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="105"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="105"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="105"/>
+      <c r="C47" s="106">
+        <v>50000</v>
+      </c>
+      <c r="D47" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="106"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="105"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="106"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="105"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="105"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="105"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="105"/>
+      <c r="C52" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="106"/>
-      <c r="C12" s="107">
-        <v>12</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
-      <c r="C22" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="106"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="106"/>
-      <c r="C29" s="107">
-        <v>128000</v>
-      </c>
-      <c r="D29" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="106"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="106"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="106"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="106"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="106"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="106"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="106"/>
-      <c r="C41" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="106"/>
-      <c r="C42" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="106"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="106"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="106"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="106"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="106"/>
-      <c r="C47" s="107">
-        <v>50000</v>
-      </c>
-      <c r="D47" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="106"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="106"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="106"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="106"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="106"/>
-      <c r="C52" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="106"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="106"/>
-      <c r="C54" s="107">
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="105"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="105"/>
+      <c r="C54" s="106">
         <f>0.02</f>
         <v>0.02</v>
       </c>
-      <c r="D54" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="107"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="106"/>
-      <c r="C55" s="111">
+      <c r="D54" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="105"/>
+      <c r="C55" s="109">
         <v>1.55E-2</v>
       </c>
-      <c r="D55" s="107" t="s">
+      <c r="D55" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="105"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="105"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="105"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="105"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="105"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="105"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="105"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="105"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="105"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="105"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="105"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="105"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="105"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="105"/>
+      <c r="C69" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="102">
+        <v>9.4</v>
+      </c>
+      <c r="F69" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="107"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="106"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="107"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="106"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="107"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="106"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="107"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="106"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="107"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="106"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="106"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="106"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="106"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="106"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="106"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="106"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="106"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="106"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="106"/>
-      <c r="C69" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="103">
-        <v>9.4</v>
-      </c>
-      <c r="F69" s="115" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="106"/>
-      <c r="C70" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="E70" s="103">
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="105"/>
+      <c r="C70" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="102">
         <f>1/E69</f>
         <v>0.10638297872340426</v>
       </c>
-      <c r="F70" s="115" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="106"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="106"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="106"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="106"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="106"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="106"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="106"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="106"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="106"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="106"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="106"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="106"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="106"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="106"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="106"/>
+      <c r="F70" s="113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="105"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="105"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="105"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="105"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="105"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="105"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="105"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="105"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="105"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="105"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="105"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="105"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="105"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="105"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
   </bookViews>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -176,9 +184,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -313,6 +318,10 @@
   <si>
     <t>Efficiency</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +332,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,11 +527,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1180,7 +1184,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1196,7 +1200,7 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1257,31 +1261,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1541,77 +1545,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1804,7 +1738,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2247,41 +2181,41 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="16"/>
+    <col min="1" max="1" width="3.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -2290,7 +2224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2299,29 +2233,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="59" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="61" t="s">
         <v>31</v>
@@ -2330,33 +2264,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="61"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="61"/>
       <c r="C13" s="64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="61"/>
       <c r="C15" s="62"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="61" t="s">
         <v>36</v>
@@ -2365,49 +2299,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="61"/>
       <c r="C17" s="66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="61"/>
       <c r="C18" s="67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="61"/>
       <c r="C19" s="68" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="69"/>
       <c r="C20" s="70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="69"/>
       <c r="C21" s="71" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="69"/>
       <c r="C22" s="72" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="69"/>
       <c r="C23" s="73" t="s">
         <v>44</v>
@@ -2416,84 +2350,79 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:M15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="44.125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="29"/>
+    <col min="1" max="1" width="3.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="120" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C2" s="121"/>
       <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
       <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="123"/>
       <c r="C4" s="124"/>
       <c r="D4" s="124"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="126"/>
       <c r="C5" s="127"/>
       <c r="D5" s="127"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1">
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2504,7 +2433,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="2:10" s="19" customFormat="1">
+    <row r="8" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="74"/>
       <c r="C8" s="75" t="s">
         <v>20</v>
@@ -2525,7 +2454,7 @@
       </c>
       <c r="J8" s="77"/>
     </row>
-    <row r="9" spans="2:10" s="19" customFormat="1">
+    <row r="9" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="26"/>
@@ -2536,10 +2465,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" s="19" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="13"/>
@@ -2549,13 +2478,13 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:10" s="19" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="28">
         <f>'Research data'!G7</f>
@@ -2563,15 +2492,15 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="34"/>
       <c r="C12" s="30"/>
       <c r="D12" s="78"/>
@@ -2582,7 +2511,7 @@
       <c r="I12" s="80"/>
       <c r="J12" s="81"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="13" t="s">
         <v>5</v>
@@ -2595,7 +2524,7 @@
       <c r="I13" s="80"/>
       <c r="J13" s="81"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
       <c r="C14" s="33" t="s">
         <v>23</v>
@@ -2613,11 +2542,11 @@
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="81"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="34"/>
       <c r="C15" s="33" t="s">
         <v>22</v>
@@ -2636,7 +2565,7 @@
       </c>
       <c r="J15" s="81"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -2647,50 +2576,13 @@
       <c r="I16" s="37"/>
       <c r="J16" s="38"/>
     </row>
-    <row r="20" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>304800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2705,26 +2597,25 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="59.125" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="39"/>
+    <col min="1" max="2" width="4.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="59.140625" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13">
+    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -2738,10 +2629,10 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="2:13" s="19" customFormat="1">
+    <row r="4" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2753,18 +2644,18 @@
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="84"/>
       <c r="K4" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="84"/>
       <c r="M4" s="84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="42"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -2775,10 +2666,10 @@
       <c r="I5" s="46"/>
       <c r="M5" s="55"/>
     </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2790,15 +2681,15 @@
       <c r="L6" s="43"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
       <c r="C7" s="114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
       <c r="F7" s="115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="116">
         <f>K7</f>
@@ -2814,7 +2705,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="57"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="42"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -2825,7 +2716,7 @@
       <c r="I8" s="46"/>
       <c r="M8" s="55"/>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -2841,7 +2732,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="54"/>
     </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
       <c r="C10" s="49" t="s">
         <v>3</v>
@@ -2865,7 +2756,7 @@
       <c r="L10" s="43"/>
       <c r="M10" s="57"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="42"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2879,10 +2770,10 @@
       <c r="L11" s="43"/>
       <c r="M11" s="45"/>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2895,9 +2786,9 @@
       <c r="L12" s="43"/>
       <c r="M12" s="99"/>
     </row>
-    <row r="13" spans="2:13" ht="16" thickBot="1">
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2917,12 +2808,12 @@
       </c>
       <c r="L13" s="43"/>
       <c r="M13" s="99" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="16" thickBot="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
@@ -2942,10 +2833,10 @@
       <c r="K14" s="46"/>
       <c r="L14" s="43"/>
       <c r="M14" s="99" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="83"/>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
@@ -2957,17 +2848,12 @@
       <c r="K15" s="46"/>
       <c r="L15" s="43"/>
       <c r="M15" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2982,22 +2868,22 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="85" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="85" customWidth="1"/>
     <col min="2" max="2" width="4" style="85" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="85" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="85" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="85" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="85" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="86" customWidth="1"/>
-    <col min="9" max="9" width="32.375" style="86" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="85" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="85"/>
+    <col min="3" max="3" width="27.85546875" style="85" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="85" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="86" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="86" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="85" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="87"/>
       <c r="C2" s="88"/>
       <c r="D2" s="88"/>
@@ -3008,7 +2894,7 @@
       <c r="I2" s="89"/>
       <c r="J2" s="88"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="90"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
@@ -3021,7 +2907,7 @@
       <c r="I3" s="91"/>
       <c r="J3" s="92"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="90"/>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
@@ -3032,7 +2918,7 @@
       <c r="I4" s="93"/>
       <c r="J4" s="92"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="94"/>
       <c r="C5" s="75" t="s">
         <v>17</v>
@@ -3047,19 +2933,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="95" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="90"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3070,14 +2956,14 @@
       <c r="I6" s="91"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="90"/>
       <c r="C7" s="96"/>
       <c r="D7" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="92">
         <v>2014</v>
@@ -3087,16 +2973,16 @@
       </c>
       <c r="H7" s="97"/>
       <c r="I7" s="111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="110" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="90"/>
       <c r="C8" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="92"/>
       <c r="E8" s="92"/>
@@ -3106,7 +2992,7 @@
       <c r="I8" s="92"/>
       <c r="J8" s="98"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="90"/>
       <c r="C9" s="96"/>
       <c r="D9" s="92"/>
@@ -3117,7 +3003,7 @@
       <c r="I9" s="92"/>
       <c r="J9" s="98"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="90"/>
       <c r="C10" s="96"/>
       <c r="D10" s="92"/>
@@ -3128,13 +3014,13 @@
       <c r="I10" s="92"/>
       <c r="J10" s="92"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="90"/>
       <c r="C11" s="119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="92" t="s">
         <v>7</v>
@@ -3147,13 +3033,13 @@
       </c>
       <c r="H11" s="92"/>
       <c r="I11" s="111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="92" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="90"/>
       <c r="C12" s="96" t="s">
         <v>6</v>
@@ -3166,7 +3052,7 @@
       <c r="I12" s="92"/>
       <c r="J12" s="92"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="90"/>
       <c r="C13" s="96" t="s">
         <v>3</v>
@@ -3182,11 +3068,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3198,18 +3079,18 @@
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="102" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="102" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="102" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="102"/>
+    <col min="1" max="1" width="5.5703125" style="102" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="102" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="102" customWidth="1"/>
+    <col min="4" max="10" width="10.7109375" style="102"/>
     <col min="11" max="11" width="10" style="102" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="102"/>
+    <col min="12" max="16384" width="10.7109375" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="103"/>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -3221,13 +3102,13 @@
       <c r="J2" s="104"/>
       <c r="K2" s="104"/>
     </row>
-    <row r="3" spans="2:11" s="19" customFormat="1">
+    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="74"/>
       <c r="C3" s="75" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
@@ -3237,7 +3118,7 @@
       <c r="J3" s="75"/>
       <c r="K3" s="75"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="105"/>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -3249,7 +3130,7 @@
       <c r="J4" s="106"/>
       <c r="K4" s="106"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="105"/>
       <c r="C5" s="106"/>
       <c r="D5" s="106"/>
@@ -3261,10 +3142,10 @@
       <c r="J5" s="106"/>
       <c r="K5" s="106"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="105"/>
       <c r="C6" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
@@ -3275,10 +3156,10 @@
       <c r="J6" s="106"/>
       <c r="K6" s="106"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="105"/>
       <c r="C7" s="106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="106"/>
       <c r="E7" s="106"/>
@@ -3289,7 +3170,7 @@
       <c r="J7" s="106"/>
       <c r="K7" s="106"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="105"/>
       <c r="C8" s="106"/>
       <c r="D8" s="106"/>
@@ -3301,7 +3182,7 @@
       <c r="J8" s="106"/>
       <c r="K8" s="106"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
       <c r="D9" s="106"/>
@@ -3313,7 +3194,7 @@
       <c r="J9" s="106"/>
       <c r="K9" s="106"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="105"/>
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
@@ -3325,7 +3206,7 @@
       <c r="J10" s="106"/>
       <c r="K10" s="106"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="105"/>
       <c r="C11" s="106"/>
       <c r="D11" s="106"/>
@@ -3337,13 +3218,13 @@
       <c r="J11" s="106"/>
       <c r="K11" s="106"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="105"/>
       <c r="C12" s="106">
         <v>12</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="106"/>
@@ -3353,7 +3234,7 @@
       <c r="J12" s="106"/>
       <c r="K12" s="106"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="105"/>
       <c r="C13" s="106"/>
       <c r="D13" s="106"/>
@@ -3365,7 +3246,7 @@
       <c r="J13" s="106"/>
       <c r="K13" s="106"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="105"/>
       <c r="C14" s="106"/>
       <c r="D14" s="106"/>
@@ -3377,7 +3258,7 @@
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="105"/>
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
@@ -3389,7 +3270,7 @@
       <c r="J15" s="106"/>
       <c r="K15" s="106"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="105"/>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
@@ -3401,7 +3282,7 @@
       <c r="J16" s="106"/>
       <c r="K16" s="106"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="105"/>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
@@ -3413,7 +3294,7 @@
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="105"/>
       <c r="C18" s="106"/>
       <c r="D18" s="106"/>
@@ -3425,7 +3306,7 @@
       <c r="J18" s="106"/>
       <c r="K18" s="106"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
       <c r="D19" s="106"/>
@@ -3437,7 +3318,7 @@
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="105"/>
       <c r="C20" s="106"/>
       <c r="D20" s="106"/>
@@ -3449,7 +3330,7 @@
       <c r="J20" s="106"/>
       <c r="K20" s="106"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="105"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106"/>
@@ -3461,10 +3342,10 @@
       <c r="J21" s="106"/>
       <c r="K21" s="106"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="105"/>
       <c r="C22" s="106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
@@ -3475,7 +3356,7 @@
       <c r="J22" s="106"/>
       <c r="K22" s="106"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="105"/>
       <c r="C23" s="106"/>
       <c r="D23" s="106"/>
@@ -3487,7 +3368,7 @@
       <c r="J23" s="106"/>
       <c r="K23" s="106"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="105"/>
       <c r="C24" s="106"/>
       <c r="D24" s="106"/>
@@ -3499,7 +3380,7 @@
       <c r="J24" s="106"/>
       <c r="K24" s="106"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="105"/>
       <c r="C25" s="106"/>
       <c r="D25" s="106"/>
@@ -3511,7 +3392,7 @@
       <c r="J25" s="106"/>
       <c r="K25" s="106"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="105"/>
       <c r="C26" s="106"/>
       <c r="D26" s="106"/>
@@ -3523,7 +3404,7 @@
       <c r="J26" s="106"/>
       <c r="K26" s="106"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="105"/>
       <c r="C27" s="106"/>
       <c r="D27" s="106"/>
@@ -3535,7 +3416,7 @@
       <c r="J27" s="106"/>
       <c r="K27" s="106"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="105"/>
       <c r="C28" s="106"/>
       <c r="D28" s="106"/>
@@ -3547,7 +3428,7 @@
       <c r="J28" s="106"/>
       <c r="K28" s="106"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="105"/>
       <c r="C29" s="106">
         <v>128000</v>
@@ -3563,7 +3444,7 @@
       <c r="J29" s="106"/>
       <c r="K29" s="106"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="105"/>
       <c r="C30" s="106"/>
       <c r="D30" s="106"/>
@@ -3575,7 +3456,7 @@
       <c r="J30" s="106"/>
       <c r="K30" s="106"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="105"/>
       <c r="C31" s="106"/>
       <c r="D31" s="106"/>
@@ -3587,7 +3468,7 @@
       <c r="J31" s="106"/>
       <c r="K31" s="106"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="105"/>
       <c r="C32" s="106"/>
       <c r="D32" s="106"/>
@@ -3599,7 +3480,7 @@
       <c r="J32" s="106"/>
       <c r="K32" s="106"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="105"/>
       <c r="C33" s="106"/>
       <c r="D33" s="106"/>
@@ -3611,7 +3492,7 @@
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="105"/>
       <c r="C34" s="106"/>
       <c r="D34" s="106"/>
@@ -3623,7 +3504,7 @@
       <c r="J34" s="106"/>
       <c r="K34" s="106"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="105"/>
       <c r="C35" s="106"/>
       <c r="D35" s="106"/>
@@ -3635,7 +3516,7 @@
       <c r="J35" s="106"/>
       <c r="K35" s="106"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="105"/>
       <c r="C36" s="106"/>
       <c r="D36" s="106"/>
@@ -3647,7 +3528,7 @@
       <c r="J36" s="106"/>
       <c r="K36" s="106"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="105"/>
       <c r="C37" s="106"/>
       <c r="D37" s="106"/>
@@ -3659,7 +3540,7 @@
       <c r="J37" s="106"/>
       <c r="K37" s="106"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="105"/>
       <c r="C38" s="106"/>
       <c r="D38" s="106"/>
@@ -3671,7 +3552,7 @@
       <c r="J38" s="106"/>
       <c r="K38" s="106"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="105"/>
       <c r="C39" s="106"/>
       <c r="D39" s="106"/>
@@ -3683,7 +3564,7 @@
       <c r="J39" s="106"/>
       <c r="K39" s="106"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="105"/>
       <c r="C40" s="106"/>
       <c r="D40" s="106"/>
@@ -3695,10 +3576,10 @@
       <c r="J40" s="106"/>
       <c r="K40" s="106"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="105"/>
       <c r="C41" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="106"/>
       <c r="E41" s="106"/>
@@ -3709,10 +3590,10 @@
       <c r="J41" s="106"/>
       <c r="K41" s="106"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="105"/>
       <c r="C42" s="106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="106"/>
       <c r="E42" s="106"/>
@@ -3723,7 +3604,7 @@
       <c r="J42" s="106"/>
       <c r="K42" s="106"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="105"/>
       <c r="C43" s="106"/>
       <c r="D43" s="106"/>
@@ -3735,7 +3616,7 @@
       <c r="J43" s="106"/>
       <c r="K43" s="106"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="105"/>
       <c r="C44" s="106"/>
       <c r="D44" s="106"/>
@@ -3747,7 +3628,7 @@
       <c r="J44" s="106"/>
       <c r="K44" s="106"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="105"/>
       <c r="C45" s="106"/>
       <c r="D45" s="106"/>
@@ -3759,7 +3640,7 @@
       <c r="J45" s="106"/>
       <c r="K45" s="106"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="105"/>
       <c r="C46" s="106"/>
       <c r="D46" s="106"/>
@@ -3771,13 +3652,13 @@
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="105"/>
       <c r="C47" s="106">
         <v>50000</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="106"/>
       <c r="F47" s="106"/>
@@ -3787,7 +3668,7 @@
       <c r="J47" s="106"/>
       <c r="K47" s="106"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="105"/>
       <c r="C48" s="106"/>
       <c r="D48" s="106"/>
@@ -3799,7 +3680,7 @@
       <c r="J48" s="106"/>
       <c r="K48" s="106"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="105"/>
       <c r="C49" s="106"/>
       <c r="D49" s="106"/>
@@ -3811,7 +3692,7 @@
       <c r="J49" s="106"/>
       <c r="K49" s="106"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="105"/>
       <c r="C50" s="106"/>
       <c r="D50" s="106"/>
@@ -3823,7 +3704,7 @@
       <c r="J50" s="106"/>
       <c r="K50" s="106"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="105"/>
       <c r="C51" s="106"/>
       <c r="D51" s="106"/>
@@ -3835,10 +3716,10 @@
       <c r="J51" s="106"/>
       <c r="K51" s="106"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="105"/>
       <c r="C52" s="106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="106"/>
       <c r="E52" s="106"/>
@@ -3849,7 +3730,7 @@
       <c r="J52" s="106"/>
       <c r="K52" s="106"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="105"/>
       <c r="C53" s="106"/>
       <c r="D53" s="106"/>
@@ -3861,14 +3742,14 @@
       <c r="J53" s="106"/>
       <c r="K53" s="106"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="105"/>
       <c r="C54" s="106">
         <f>0.02</f>
         <v>0.02</v>
       </c>
       <c r="D54" s="106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="106"/>
       <c r="F54" s="106"/>
@@ -3878,13 +3759,13 @@
       <c r="J54" s="106"/>
       <c r="K54" s="106"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="105"/>
       <c r="C55" s="109">
         <v>1.55E-2</v>
       </c>
       <c r="D55" s="106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="106"/>
       <c r="F55" s="106"/>
@@ -3894,7 +3775,7 @@
       <c r="J55" s="106"/>
       <c r="K55" s="106"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="105"/>
       <c r="C56" s="106"/>
       <c r="D56" s="106"/>
@@ -3906,7 +3787,7 @@
       <c r="J56" s="106"/>
       <c r="K56" s="106"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="105"/>
       <c r="C57" s="106"/>
       <c r="D57" s="106"/>
@@ -3918,7 +3799,7 @@
       <c r="J57" s="106"/>
       <c r="K57" s="106"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="105"/>
       <c r="C58" s="106"/>
       <c r="D58" s="106"/>
@@ -3930,7 +3811,7 @@
       <c r="J58" s="106"/>
       <c r="K58" s="106"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
       <c r="D59" s="106"/>
@@ -3942,7 +3823,7 @@
       <c r="J59" s="106"/>
       <c r="K59" s="106"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="105"/>
       <c r="C60" s="106"/>
       <c r="D60" s="106"/>
@@ -3954,7 +3835,7 @@
       <c r="J60" s="106"/>
       <c r="K60" s="106"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="105"/>
       <c r="C61" s="106"/>
       <c r="D61" s="106"/>
@@ -3966,105 +3847,100 @@
       <c r="J61" s="106"/>
       <c r="K61" s="106"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="105"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="105"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="105"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="105"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="105"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="105"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="105"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="105"/>
       <c r="C69" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E69" s="102">
         <v>9.4</v>
       </c>
       <c r="F69" s="113" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="105"/>
       <c r="C70" s="113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E70" s="102">
         <f>1/E69</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="F70" s="113" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="105"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="105"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="105"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="105"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="105"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="105"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="105"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="105"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="105"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="105"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="105"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="105"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="105"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="105"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -292,21 +292,6 @@
     <t>http://refman.et-model.com/publications/1928</t>
   </si>
   <si>
-    <r>
-      <t>output.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>truck_kms</t>
-    </r>
-  </si>
-  <si>
     <t>MJ/km</t>
   </si>
   <si>
@@ -321,6 +306,105 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>output.freight_tonne_kms</t>
+  </si>
+  <si>
+    <t>tkm/MJ</t>
+  </si>
+  <si>
+    <t>Tonne km</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/eurostat/web/transport/data/main-tables?p_p_id=NavTreeportletprod_WAR_NavTreeportletprod_INSTANCE_BXN01QNK1Jk7&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-2&amp;p_p_col_count=1</t>
+  </si>
+  <si>
+    <t>Vehicle km</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km</t>
+  </si>
+  <si>
+    <t>mln tonne km</t>
+  </si>
+  <si>
+    <t>tonne km/vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km/MJ</t>
+  </si>
+  <si>
+    <t>Tonne km trucks</t>
+  </si>
+  <si>
+    <t>Vehicle km trucks</t>
+  </si>
+  <si>
+    <t>Tonne km vans</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=82836ned&amp;D1=1-2&amp;D2=0&amp;D3=0&amp;D4=l&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Vehicle km vans</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80353ned&amp;D1=a&amp;D2=a&amp;D3=0&amp;D4=25-26&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>mj/km</t>
+  </si>
+  <si>
+    <t>km/mj</t>
+  </si>
+  <si>
+    <t>weighted average</t>
+  </si>
+  <si>
+    <t>truck kms</t>
+  </si>
+  <si>
+    <t>mln</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
+  </si>
+  <si>
+    <t>truck tonne kms</t>
+  </si>
+  <si>
+    <t>van kms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: used 2016 data since tonne kms is only available for 2016. Used van vehicle kms from different Statline than tonne kms since we are interested in all vehicle kms, not just loaded </t>
+  </si>
+  <si>
+    <t>van tonne kms</t>
+  </si>
+  <si>
+    <t>Note: used 2016 data since tonne kms is only available for 2016</t>
   </si>
 </sst>
 </file>
@@ -332,12 +416,19 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -505,6 +596,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,6 +604,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,6 +612,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,11 +620,13 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,12 +634,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -841,453 +946,459 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1555,8 +1666,8 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -1593,7 +1704,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -1629,8 +1740,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -1666,8 +1777,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1726,6 +1837,196 @@
         <a:xfrm>
           <a:off x="3911600" y="12357100"/>
           <a:ext cx="7302500" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="23710900"/>
+          <a:ext cx="13512800" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="27254200"/>
+          <a:ext cx="13373100" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>78497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13360400" y="13233400"/>
+          <a:ext cx="6019800" cy="2707397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>300264</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19697700" y="14109700"/>
+          <a:ext cx="5050064" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5384800" y="15354300"/>
+          <a:ext cx="7823200" cy="2044700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,23 +2484,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="16"/>
+    <col min="1" max="1" width="3.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2245,105 +2546,105 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="61" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="62" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="60" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="63" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="64" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="65" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="68" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="66" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70" t="s">
+      <c r="B20" s="67"/>
+      <c r="C20" s="68" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="69" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="70" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="69"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="71" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2360,221 +2661,221 @@
   </sheetPr>
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="29"/>
+    <col min="1" max="1" width="3.1640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="28" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="28" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="129"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="132"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="132"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="30"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="72"/>
+      <c r="C8" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="123"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128"/>
-    </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75" t="s">
+      <c r="D11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="27">
+        <f>'Research data'!E7</f>
+        <v>0.6346560383252916</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+      <c r="C14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34">
+        <f>'Research data'!E10</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="28">
-        <f>'Research data'!G7</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="34"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-    </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-    </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="35">
-        <f>'Research data'!G10</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="81"/>
-    </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="28" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="81"/>
+      <c r="J15" s="79"/>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2591,263 +2892,235 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="59.140625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="39"/>
+    <col min="1" max="2" width="4.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="38" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="59.1640625" style="38" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-    </row>
-    <row r="4" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="84" t="s">
+    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="84" t="s">
+      <c r="D4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="E4" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84" t="s">
+      <c r="H4" s="82"/>
+      <c r="I4" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84" t="s">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="M5" s="55"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="12" t="s">
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="41"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="116">
-        <f>K7</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="116">
-        <f>Notes!E70</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="42"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="M8" s="55"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
+      <c r="C7" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="114">
+        <f>I7</f>
+        <v>0.6346560383252916</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="114">
+        <f>Notes!E104</f>
+        <v>0.6346560383252916</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="41"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="54"/>
-    </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="49" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="50">
+      <c r="E10" s="49">
         <f>ROUND(12,0)</f>
         <v>12</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="50">
+      <c r="F10" s="45"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="49">
         <f>Notes!C12</f>
         <v>12</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="57"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="12" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="41"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
+      <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="99"/>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="83" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="97"/>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="56" t="s">
+      <c r="D13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="47">
+      <c r="E13" s="46">
         <f>ROUND(128000,2)</f>
         <v>128000</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="47">
+      <c r="F13" s="10"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="46">
         <f>Notes!C29</f>
         <v>128000</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="99" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="97" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="83" t="s">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="82" t="s">
+      <c r="D14" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="52">
+      <c r="E14" s="50">
         <f>ROUND(4415,2)</f>
         <v>4415</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="107">
+      <c r="F14" s="51"/>
+      <c r="G14" s="105">
         <f>Notes!C55*Notes!C47+3640</f>
         <v>4415</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="99" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="97" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="83"/>
-      <c r="D15" s="51"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="81"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="51"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="99" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="97" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2862,208 +3135,322 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A18" sqref="A18:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4" style="85" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="85" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="85" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="85" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="85" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="86" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" style="86" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="85" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="85"/>
+    <col min="1" max="1" width="3.1640625" style="83" customWidth="1"/>
+    <col min="2" max="2" width="4" style="83" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="83" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="83" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="84" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="84" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="83" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="88"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="90"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="90"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="92"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="94"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="90"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="106" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="90">
         <v>2014</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="90">
         <v>2013</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="111" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="J7" s="108" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="90"/>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="98"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="96"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="90"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="98"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="96"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="90"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="90"/>
-      <c r="C11" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="92" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="90">
         <v>2013</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="90">
         <v>2012</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="111" t="s">
+      <c r="H11" s="90"/>
+      <c r="I11" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="J11" s="90" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="90"/>
-      <c r="C12" s="96" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="90"/>
-      <c r="C13" s="96" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+    </row>
+    <row r="15" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="118">
+        <v>2015</v>
+      </c>
+      <c r="H15" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="118">
+        <v>2015</v>
+      </c>
+      <c r="H16" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" s="136" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="136" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="136">
+        <v>2015</v>
+      </c>
+      <c r="H18" s="137" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="137" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="136" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="136">
+        <v>2015</v>
+      </c>
+      <c r="H19" s="137" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="137" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" s="136" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="136">
+        <v>2016</v>
+      </c>
+      <c r="H20" s="137" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="137" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" s="136" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="136">
+        <v>2016</v>
+      </c>
+      <c r="H21" s="137" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="137" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3073,870 +3460,1184 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K85"/>
+  <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="102" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="102" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="102" customWidth="1"/>
-    <col min="4" max="10" width="10.7109375" style="102"/>
-    <col min="11" max="11" width="10" style="102" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="102"/>
+    <col min="1" max="1" width="5.5" style="100" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="100" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="100" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="100"/>
+    <col min="5" max="5" width="17.5" style="100" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="100"/>
+    <col min="11" max="11" width="10" style="100" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="103"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-    </row>
-    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="105"/>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="105"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="105"/>
-      <c r="C12" s="106">
+      <c r="B12" s="103"/>
+      <c r="C12" s="104">
         <v>12</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="105"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="105"/>
-      <c r="C22" s="106" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="105"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="105"/>
-      <c r="C29" s="106">
+      <c r="B29" s="103"/>
+      <c r="C29" s="104">
         <v>128000</v>
       </c>
-      <c r="D29" s="106" t="s">
+      <c r="D29" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="105"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="105"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="105"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="105"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="105"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="105"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="105"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="105"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="105"/>
-      <c r="C41" s="106" t="s">
+      <c r="B41" s="103"/>
+      <c r="C41" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="106"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="105"/>
-      <c r="C42" s="106" t="s">
+      <c r="B42" s="103"/>
+      <c r="C42" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="105"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="105"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="105"/>
-      <c r="C47" s="106">
+      <c r="B47" s="103"/>
+      <c r="C47" s="104">
         <v>50000</v>
       </c>
-      <c r="D47" s="106" t="s">
+      <c r="D47" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="105"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="105"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="106"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="105"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="105"/>
-      <c r="C52" s="106" t="s">
+      <c r="B52" s="103"/>
+      <c r="C52" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="106"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="105"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="105"/>
-      <c r="C54" s="106">
+      <c r="B54" s="103"/>
+      <c r="C54" s="104">
         <f>0.02</f>
         <v>0.02</v>
       </c>
-      <c r="D54" s="106" t="s">
+      <c r="D54" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="105"/>
-      <c r="C55" s="109">
+      <c r="B55" s="103"/>
+      <c r="C55" s="107">
         <v>1.55E-2</v>
       </c>
-      <c r="D55" s="106" t="s">
+      <c r="D55" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="105"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="105"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="105"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="105"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="105"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="105"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="106"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="105"/>
+      <c r="B62" s="103"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="105"/>
+      <c r="B63" s="103"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="105"/>
+      <c r="B64" s="103"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="105"/>
+      <c r="B65" s="103"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="105"/>
+      <c r="B66" s="103"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="105"/>
+      <c r="B67" s="103"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="105"/>
+      <c r="B68" s="103"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="105"/>
-      <c r="C69" s="113" t="s">
+      <c r="B69" s="103"/>
+      <c r="C69" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="102">
+      <c r="D69" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="100">
         <v>9.4</v>
       </c>
-      <c r="F69" s="113" t="s">
-        <v>74</v>
+      <c r="F69" s="111" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="105"/>
-      <c r="C70" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" s="102">
+      <c r="B70" s="103"/>
+      <c r="C70" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="100">
         <f>1/E69</f>
         <v>0.10638297872340426</v>
       </c>
-      <c r="F70" s="113" t="s">
-        <v>75</v>
+      <c r="F70" s="111" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="105"/>
+      <c r="B71" s="103"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="105"/>
+      <c r="B72" s="103"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="105"/>
+      <c r="B73" s="103"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="105"/>
+      <c r="B74" s="103"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="105"/>
+      <c r="B75" s="103"/>
+      <c r="D75" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="100">
+        <v>2.31</v>
+      </c>
+      <c r="F75" s="136" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="105"/>
+      <c r="B76" s="103"/>
+      <c r="E76" s="100">
+        <f>1/E75</f>
+        <v>0.4329004329004329</v>
+      </c>
+      <c r="F76" s="136" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="105"/>
+      <c r="B77" s="103"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="105"/>
+      <c r="B78" s="103"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="105"/>
+      <c r="B79" s="103"/>
+      <c r="D79" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="100">
+        <f>((E69*G88)+(G90*E75))/(G88+G90)</f>
+        <v>4.4639861986778433</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="105"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="105"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="105"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="105"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="105"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="105"/>
+      <c r="B80" s="104"/>
+      <c r="E80" s="100">
+        <f>1/E79</f>
+        <v>0.22401502950349242</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="104"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="104"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="104"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" s="104"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="104"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="104"/>
+    </row>
+    <row r="87" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="138"/>
+    </row>
+    <row r="88" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="138"/>
+      <c r="F88" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" s="123">
+        <v>7546</v>
+      </c>
+      <c r="H88" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="J88" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="L88" s="136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="138"/>
+      <c r="F89" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="G89" s="123">
+        <v>68900</v>
+      </c>
+      <c r="H89" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="J89" s="136" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="138"/>
+      <c r="F90" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="G90" s="123">
+        <v>17292.2</v>
+      </c>
+      <c r="H90" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="J90" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="L90" s="136" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="138"/>
+      <c r="F91" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" s="123">
+        <v>1469</v>
+      </c>
+      <c r="H91" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="J91" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="L91" s="136" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="104"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="104"/>
+    </row>
+    <row r="94" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="104"/>
+    </row>
+    <row r="95" spans="2:12" s="120" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="123">
+        <f>G88+G90</f>
+        <v>24838.2</v>
+      </c>
+      <c r="F95" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" s="122"/>
+      <c r="H95" s="122"/>
+      <c r="I95" s="122"/>
+    </row>
+    <row r="96" spans="2:12" s="120" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="122"/>
+      <c r="D96" s="122"/>
+      <c r="E96" s="122">
+        <f>E95*1000000</f>
+        <v>24838200000</v>
+      </c>
+      <c r="F96" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="G96" s="122"/>
+      <c r="H96" s="122"/>
+      <c r="I96" s="122"/>
+    </row>
+    <row r="97" spans="3:9" s="120" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="122"/>
+      <c r="D97" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97" s="124">
+        <f>G89+G91</f>
+        <v>70369</v>
+      </c>
+      <c r="F97" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="G97" s="122"/>
+      <c r="H97" s="122"/>
+      <c r="I97" s="122"/>
+    </row>
+    <row r="98" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="122"/>
+      <c r="D98" s="122"/>
+      <c r="E98" s="125">
+        <f>E97*1000000</f>
+        <v>70369000000</v>
+      </c>
+      <c r="F98" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" s="122"/>
+      <c r="H98" s="122"/>
+      <c r="I98" s="122"/>
+    </row>
+    <row r="99" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="122"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="122"/>
+      <c r="G99" s="122"/>
+      <c r="H99" s="122"/>
+      <c r="I99" s="122"/>
+    </row>
+    <row r="100" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="122"/>
+      <c r="D100" s="122"/>
+      <c r="E100" s="126">
+        <f>E98/E96</f>
+        <v>2.8330957959916581</v>
+      </c>
+      <c r="F100" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="G100" s="122"/>
+      <c r="H100" s="122"/>
+      <c r="I100" s="122"/>
+    </row>
+    <row r="101" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="122"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="122"/>
+      <c r="F101" s="122"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="122"/>
+      <c r="I101" s="122"/>
+    </row>
+    <row r="102" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="122"/>
+      <c r="D102" s="122"/>
+      <c r="E102" s="122"/>
+      <c r="F102" s="122"/>
+      <c r="G102" s="122"/>
+      <c r="H102" s="122"/>
+      <c r="I102" s="122"/>
+    </row>
+    <row r="103" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="122"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="122"/>
+      <c r="F103" s="122"/>
+      <c r="G103" s="122"/>
+      <c r="H103" s="122"/>
+      <c r="I103" s="122"/>
+    </row>
+    <row r="104" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="122"/>
+      <c r="D104" s="122" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.freight_tonne_kms</v>
+      </c>
+      <c r="E104" s="122">
+        <f>E100*E80</f>
+        <v>0.6346560383252916</v>
+      </c>
+      <c r="F104" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="G104" s="122"/>
+      <c r="H104" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="I104" s="122"/>
+    </row>
+    <row r="105" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="122"/>
+      <c r="D105" s="122"/>
+      <c r="E105" s="122"/>
+      <c r="F105" s="122"/>
+      <c r="G105" s="122"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="122"/>
+    </row>
+    <row r="106" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="122"/>
+      <c r="D106" s="122"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="122"/>
+      <c r="G106" s="122"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="122"/>
+    </row>
+    <row r="107" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="122"/>
+      <c r="D107" s="122"/>
+      <c r="E107" s="122"/>
+      <c r="F107" s="122"/>
+      <c r="G107" s="122"/>
+      <c r="H107" s="122"/>
+      <c r="I107" s="122"/>
+    </row>
+    <row r="108" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="103"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="103"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="103"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="103"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="103"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="103"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
